--- a/biology/Zoologie/Brueelia/Brueelia.xlsx
+++ b/biology/Zoologie/Brueelia/Brueelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brueelia est un genre de poux de la famille des Philopteridae, que l'on rencontre principalement sur les oiseaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Brueelia a été créé en 1936 par Stefan Kéler (d) avec pour espèce type Brueelia rossitensis[2] et en l'orthographiant Brüelia, graphie qui sera rectifiée par la suite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Brueelia a été créé en 1936 par Stefan Kéler (d) avec pour espèce type Brueelia rossitensis et en l'orthographiant Brüelia, graphie qui sera rectifiée par la suite.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon  Species File              (23 juin 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon  Species File              (23 juin 2021) :
 Brueelia abbasi Carriker, 1956
 Brueelia abrupta (Osborn, 1896)
 Brueelia acuminata Cicchino, 1982
@@ -855,7 +871,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Von S. Kéler, « Über einige Mallophagen aus Rossitten », Arbeiten über Morphologische und Taxonomische Entomologie aus Berlin-Dahlem, vol. 3, no 4,‎ 1936, p. 256–264 (ISSN 0256-209X, OCLC 478944799, lire en ligne)</t>
         </is>
